--- a/kc/result.xlsx
+++ b/kc/result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>1test, n-1 train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2 차 sample 통합, shuffle and split(7:3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -481,13 +485,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,6 +559,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,58 +634,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,28 +920,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N27"/>
+  <dimension ref="A2:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.3">
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
@@ -890,7 +960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
@@ -898,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -906,15 +976,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -940,11 +1007,8 @@
       <c r="J5" s="6">
         <v>0.87303278688524599</v>
       </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -964,17 +1028,14 @@
       <c r="J6" s="6">
         <v>1.0284120733034401</v>
       </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
@@ -984,20 +1045,14 @@
       <c r="J7" s="6">
         <v>1.65884001539919</v>
       </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1008,20 +1063,20 @@
         <v>1.1000633085909599</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="12" t="s">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1042,13 +1097,13 @@
         <v>0.82786885245901598</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1058,14 +1113,20 @@
       <c r="J11" s="6">
         <v>0.81967213114754101</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B12" s="23"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1075,14 +1136,16 @@
       <c r="J12" s="6">
         <v>0.81967213114754101</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="27"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="28"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="7" t="s">
         <v>15</v>
       </c>
@@ -1092,9 +1155,40 @@
       <c r="J13" s="8">
         <v>0.82786885245901598</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" ht="21" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+    </row>
+    <row r="14" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1102,12 +1196,31 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J15" s="19"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="19"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>0</v>
       </c>
@@ -1131,8 +1244,39 @@
       <c r="J16" s="6">
         <v>2.4462174863388002</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.98872127659574305</v>
+      </c>
+      <c r="T16" s="6">
+        <v>3.0740082644628099</v>
+      </c>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
@@ -1152,14 +1296,41 @@
       <c r="J17" s="6">
         <v>2.2273065819701201</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="L17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.143981646772817</v>
+      </c>
+      <c r="T17" s="6">
+        <v>2.4423729653988899</v>
+      </c>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1169,14 +1340,37 @@
       <c r="J18" s="6">
         <v>3.5045678253283898</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1.6083986967581201</v>
+      </c>
+      <c r="T18" s="6">
+        <v>2.5813260909454701</v>
+      </c>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B19" s="23"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1186,14 +1380,37 @@
       <c r="J19" s="6">
         <v>2.4158517189854298</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.81450022518085896</v>
+      </c>
+      <c r="T19" s="6">
+        <v>2.33618580201541</v>
+      </c>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+    </row>
+    <row r="20" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1203,21 +1420,63 @@
       <c r="J20" s="6">
         <v>2.33873597335212</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="12" t="s">
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1.6127891430598</v>
+      </c>
+      <c r="T20" s="6">
+        <v>1.8611598754070799</v>
+      </c>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="35"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="35"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="12"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
@@ -1237,14 +1496,47 @@
       <c r="J22" s="6">
         <v>0.79508196721311397</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
+      <c r="L22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1</v>
+      </c>
+      <c r="T22" s="6">
+        <v>0.909090909</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC22" s="6"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1254,14 +1546,39 @@
       <c r="J23" s="6">
         <v>0.80327868852458995</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.97517730496400001</v>
+      </c>
+      <c r="T23" s="6">
+        <v>0.89256198347106996</v>
+      </c>
+      <c r="V23" s="20"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC23" s="6"/>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B24" s="23"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1271,31 +1588,81 @@
       <c r="J24" s="6">
         <v>0.81147540983606503</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.96099290780141799</v>
+      </c>
+      <c r="T24" s="6">
+        <v>0.87603305785123897</v>
+      </c>
+      <c r="V24" s="23"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC24" s="6"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B25" s="23"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="10">
         <v>1</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="11">
         <v>0.81967213114754101</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="27"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="28"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S25" s="10">
+        <v>0.99290780141843904</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0.90082644628099096</v>
+      </c>
+      <c r="V25" s="23"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC25" s="11"/>
+    </row>
+    <row r="26" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="7" t="s">
         <v>20</v>
       </c>
@@ -1305,8 +1672,33 @@
       <c r="J26" s="8">
         <v>0.83606557377049096</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L26" s="25"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0.93262411347517704</v>
+      </c>
+      <c r="T26" s="8">
+        <v>0.95041322314049503</v>
+      </c>
+      <c r="V26" s="25"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC26" s="8"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1317,18 +1709,53 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:G8"/>
-    <mergeCell ref="B18:G20"/>
+  <mergeCells count="19">
     <mergeCell ref="B23:G26"/>
     <mergeCell ref="B11:G13"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="V13:AC20"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B7:G8"/>
+    <mergeCell ref="B18:G20"/>
+    <mergeCell ref="V21:AB21"/>
+    <mergeCell ref="V23:AA26"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="L18:Q20"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="L23:Q26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kc/result.xlsx
+++ b/kc/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@DevDocs\DIC\project\dic\kc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dic\dic\kc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
   <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>1,2 차 sample 통합, shuffle and split(7:3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,9 +575,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,63 +642,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,7 +927,7 @@
   <dimension ref="A2:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -976,10 +980,10 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -1030,12 +1034,12 @@
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1047,12 +1051,12 @@
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1064,17 +1068,17 @@
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="34" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="35"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -1098,12 +1102,12 @@
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1121,12 +1125,12 @@
       <c r="S11" s="13"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="24"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1140,12 +1144,12 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="7" t="s">
         <v>15</v>
       </c>
@@ -1155,22 +1159,22 @@
       <c r="J13" s="8">
         <v>0.82786885245901598</v>
       </c>
-      <c r="O13" s="28" t="s">
+      <c r="O13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
     </row>
     <row r="14" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S14" s="1" t="s">
@@ -1179,14 +1183,14 @@
       <c r="T14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
@@ -1196,10 +1200,10 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="19"/>
+      <c r="J15" s="27"/>
       <c r="L15" s="3"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1207,18 +1211,18 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="18" t="s">
+      <c r="S15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="19"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
+      <c r="T15" s="27"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
@@ -1267,14 +1271,14 @@
       <c r="T16" s="6">
         <v>3.0740082644628099</v>
       </c>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
@@ -1315,22 +1319,22 @@
       <c r="T17" s="6">
         <v>2.4423729653988899</v>
       </c>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1340,12 +1344,12 @@
       <c r="J18" s="6">
         <v>3.5045678253283898</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="22"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
       <c r="R18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1355,22 +1359,22 @@
       <c r="T18" s="6">
         <v>2.5813260909454701</v>
       </c>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="24"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1380,12 +1384,12 @@
       <c r="J19" s="6">
         <v>2.4158517189854298</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="24"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
       <c r="R19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1395,22 +1399,22 @@
       <c r="T19" s="6">
         <v>2.33618580201541</v>
       </c>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
     </row>
     <row r="20" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1420,12 +1424,12 @@
       <c r="J20" s="6">
         <v>2.33873597335212</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
       <c r="R20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1435,46 +1439,48 @@
       <c r="T20" s="6">
         <v>1.8611598754070799</v>
       </c>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="34" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="34" t="s">
+      <c r="J21" s="24"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="35"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="12"/>
+      <c r="T21" s="24"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
@@ -1528,15 +1534,17 @@
       <c r="AB22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC22" s="6"/>
+      <c r="AC22" s="6">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1546,12 +1554,12 @@
       <c r="J23" s="6">
         <v>0.80327868852458995</v>
       </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="22"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="16"/>
       <c r="R23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1561,24 +1569,26 @@
       <c r="T23" s="6">
         <v>0.89256198347106996</v>
       </c>
-      <c r="V23" s="20"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="22"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="16"/>
       <c r="AB23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AC23" s="6"/>
+      <c r="AC23" s="6">
+        <v>99.007000000000005</v>
+      </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B24" s="23"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="24"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1588,12 +1598,12 @@
       <c r="J24" s="6">
         <v>0.81147540983606503</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="24"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="19"/>
       <c r="R24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1603,24 +1613,26 @@
       <c r="T24" s="6">
         <v>0.87603305785123897</v>
       </c>
-      <c r="V24" s="23"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="24"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="19"/>
       <c r="AB24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC24" s="6"/>
+      <c r="AC24" s="6">
+        <v>98.759</v>
+      </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="24"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1630,12 +1642,12 @@
       <c r="J25" s="11">
         <v>0.81967213114754101</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="24"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="19"/>
       <c r="R25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1645,24 +1657,24 @@
       <c r="T25" s="11">
         <v>0.90082644628099096</v>
       </c>
-      <c r="V25" s="23"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="24"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="19"/>
       <c r="AB25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="AC25" s="11"/>
     </row>
     <row r="26" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="7" t="s">
         <v>20</v>
       </c>
@@ -1672,12 +1684,12 @@
       <c r="J26" s="8">
         <v>0.83606557377049096</v>
       </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="27"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="22"/>
       <c r="R26" s="7" t="s">
         <v>20</v>
       </c>
@@ -1687,12 +1699,12 @@
       <c r="T26" s="8">
         <v>0.95041322314049503</v>
       </c>
-      <c r="V26" s="25"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="27"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="22"/>
       <c r="AB26" s="7" t="s">
         <v>20</v>
       </c>
@@ -1737,6 +1749,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="L23:Q26"/>
     <mergeCell ref="B23:G26"/>
     <mergeCell ref="B11:G13"/>
     <mergeCell ref="I9:J9"/>
@@ -1753,9 +1768,6 @@
     <mergeCell ref="O13:T13"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="L18:Q20"/>
-    <mergeCell ref="L21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="L23:Q26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kc/result.xlsx
+++ b/kc/result.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dic\dic\kc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@DevDocs\DIC\project\dic\kc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
   <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +140,22 @@
   </si>
   <si>
     <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균, 표준편찬 함께 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이론적 상한치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상/하한에 대한 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,6 +163,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,6 +595,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,6 +616,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -593,6 +634,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,46 +652,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -980,10 +1009,10 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="27"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -1034,12 +1063,12 @@
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1051,12 +1080,12 @@
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1068,17 +1097,17 @@
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="23" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -1102,12 +1131,12 @@
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1125,12 +1154,12 @@
       <c r="S11" s="13"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1144,12 +1173,12 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="7" t="s">
         <v>15</v>
       </c>
@@ -1159,22 +1188,22 @@
       <c r="J13" s="8">
         <v>0.82786885245901598</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
     </row>
     <row r="14" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S14" s="1" t="s">
@@ -1183,14 +1212,14 @@
       <c r="T14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
@@ -1200,10 +1229,10 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="27"/>
+      <c r="J15" s="35"/>
       <c r="L15" s="3"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1211,18 +1240,18 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="26" t="s">
+      <c r="S15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="27"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
+      <c r="T15" s="35"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
@@ -1271,14 +1300,14 @@
       <c r="T16" s="6">
         <v>3.0740082644628099</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
@@ -1319,22 +1348,22 @@
       <c r="T17" s="6">
         <v>2.4423729653988899</v>
       </c>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1344,12 +1373,12 @@
       <c r="J18" s="6">
         <v>3.5045678253283898</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="16"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="20"/>
       <c r="R18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1359,22 +1388,22 @@
       <c r="T18" s="6">
         <v>2.5813260909454701</v>
       </c>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1384,12 +1413,12 @@
       <c r="J19" s="6">
         <v>2.4158517189854298</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="19"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="26"/>
       <c r="R19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1399,22 +1428,22 @@
       <c r="T19" s="6">
         <v>2.33618580201541</v>
       </c>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
     </row>
     <row r="20" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1424,12 +1453,12 @@
       <c r="J20" s="6">
         <v>2.33873597335212</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="33"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="23"/>
       <c r="R20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1439,45 +1468,45 @@
       <c r="T20" s="6">
         <v>1.8611598754070799</v>
       </c>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="23" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="23" t="s">
+      <c r="J21" s="37"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="24"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="36"/>
+      <c r="T21" s="37"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="29"/>
       <c r="AC21" s="12" t="s">
         <v>28</v>
       </c>
@@ -1539,12 +1568,12 @@
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1554,12 +1583,12 @@
       <c r="J23" s="6">
         <v>0.80327868852458995</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="16"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1569,12 +1598,12 @@
       <c r="T23" s="6">
         <v>0.89256198347106996</v>
       </c>
-      <c r="V23" s="14"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="16"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="20"/>
       <c r="AB23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1583,12 +1612,12 @@
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1598,12 +1627,12 @@
       <c r="J24" s="6">
         <v>0.81147540983606503</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="19"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="26"/>
       <c r="R24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1613,12 +1642,12 @@
       <c r="T24" s="6">
         <v>0.87603305785123897</v>
       </c>
-      <c r="V24" s="17"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="19"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="26"/>
       <c r="AB24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1627,12 +1656,12 @@
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1642,12 +1671,12 @@
       <c r="J25" s="11">
         <v>0.81967213114754101</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="19"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="26"/>
       <c r="R25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1657,24 +1686,26 @@
       <c r="T25" s="11">
         <v>0.90082644628099096</v>
       </c>
-      <c r="V25" s="17"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="19"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="26"/>
       <c r="AB25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AC25" s="11"/>
+      <c r="AC25" s="11">
+        <v>99.751999999999995</v>
+      </c>
     </row>
     <row r="26" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="7" t="s">
         <v>20</v>
       </c>
@@ -1684,31 +1715,33 @@
       <c r="J26" s="8">
         <v>0.83606557377049096</v>
       </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="22"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="32"/>
       <c r="R26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="S26" s="7">
-        <v>0.93262411347517704</v>
+        <v>0.93553719008264402</v>
       </c>
       <c r="T26" s="8">
-        <v>0.95041322314049503</v>
-      </c>
-      <c r="V26" s="20"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="22"/>
+        <v>0.93120567375886498</v>
+      </c>
+      <c r="V26" s="30"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="32"/>
       <c r="AB26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AC26" s="8"/>
+      <c r="AC26" s="8">
+        <v>95.037000000000006</v>
+      </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
@@ -1721,11 +1754,24 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AC28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="S29" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
         <v>24</v>
       </c>
       <c r="I30"/>
+      <c r="S30" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.3">
       <c r="H31" t="s">
@@ -1748,18 +1794,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="L21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="L23:Q26"/>
-    <mergeCell ref="B23:G26"/>
-    <mergeCell ref="B11:G13"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="V13:AC20"/>
+  <mergeCells count="18">
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B7:G8"/>
     <mergeCell ref="B18:G20"/>
@@ -1768,9 +1808,408 @@
     <mergeCell ref="O13:T13"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="L18:Q20"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="L23:Q26"/>
+    <mergeCell ref="B23:G26"/>
+    <mergeCell ref="B11:G13"/>
+    <mergeCell ref="B21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="10" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="39"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="38">
+        <v>0.91843971631205601</v>
+      </c>
+      <c r="C3" s="38">
+        <v>0.93388429752066104</v>
+      </c>
+      <c r="D3" s="38">
+        <v>1</v>
+      </c>
+      <c r="E3" s="38">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="F3" s="38">
+        <v>0.96808510638297796</v>
+      </c>
+      <c r="G3" s="38">
+        <v>0.90082644628099096</v>
+      </c>
+      <c r="H3" s="38">
+        <v>0.96453900709219798</v>
+      </c>
+      <c r="I3" s="38">
+        <v>0.93388429752066104</v>
+      </c>
+      <c r="J3" s="38">
+        <v>0.98581560283687897</v>
+      </c>
+      <c r="K3">
+        <v>0.91735537190082606</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="38">
+        <v>0.94680851063829696</v>
+      </c>
+      <c r="C4" s="38">
+        <v>0.90082644628099096</v>
+      </c>
+      <c r="D4" s="38">
+        <v>1</v>
+      </c>
+      <c r="E4" s="38">
+        <v>0.92561983471074305</v>
+      </c>
+      <c r="F4" s="38">
+        <v>0.97163120567375805</v>
+      </c>
+      <c r="G4" s="38">
+        <v>0.87603305785123897</v>
+      </c>
+      <c r="H4" s="38">
+        <v>0.95035460992907805</v>
+      </c>
+      <c r="I4" s="38">
+        <v>0.88429752066115697</v>
+      </c>
+      <c r="J4" s="38">
+        <v>0.99290780141843904</v>
+      </c>
+      <c r="K4">
+        <v>0.90082644628099096</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="38">
+        <v>0.94680851063829696</v>
+      </c>
+      <c r="C5" s="38">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="D5" s="38">
+        <v>1</v>
+      </c>
+      <c r="E5" s="38">
+        <v>0.90082644628099096</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0.96453900709219798</v>
+      </c>
+      <c r="G5" s="38">
+        <v>0.92561983471074305</v>
+      </c>
+      <c r="H5" s="38">
+        <v>0.97163120567375805</v>
+      </c>
+      <c r="I5" s="38">
+        <v>0.84297520661156999</v>
+      </c>
+      <c r="J5" s="38">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0.88429752066115697</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="38">
+        <v>0.95035460992907805</v>
+      </c>
+      <c r="C6" s="38">
+        <v>0.91735537190082606</v>
+      </c>
+      <c r="D6" s="38">
+        <v>1</v>
+      </c>
+      <c r="E6" s="38">
+        <v>0.89256198347107396</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0.97163120567375805</v>
+      </c>
+      <c r="G6" s="38">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="H6" s="38">
+        <v>0.95390070921985803</v>
+      </c>
+      <c r="I6" s="38">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0.99290780141843904</v>
+      </c>
+      <c r="K6">
+        <v>0.87603305785123897</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="38">
+        <v>0.939716312056737</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0.92561983471074305</v>
+      </c>
+      <c r="D7" s="38">
+        <v>1</v>
+      </c>
+      <c r="E7" s="38">
+        <v>0.92561983471074305</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0.98226950354609899</v>
+      </c>
+      <c r="G7" s="38">
+        <v>0.90082644628099096</v>
+      </c>
+      <c r="H7" s="38">
+        <v>0.95744680851063801</v>
+      </c>
+      <c r="I7" s="38">
+        <v>0.91735537190082606</v>
+      </c>
+      <c r="J7" s="38">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0.87603305785123897</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="38">
+        <v>0.93262411347517704</v>
+      </c>
+      <c r="C8" s="38">
+        <v>0.93388429752066104</v>
+      </c>
+      <c r="D8" s="38">
+        <v>0.99645390070921902</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0.89256198347107396</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0.97517730496453903</v>
+      </c>
+      <c r="G8" s="38">
+        <v>0.88429752066115697</v>
+      </c>
+      <c r="H8" s="38">
+        <v>0.96099290780141799</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0.90082644628099096</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0.99645390070921902</v>
+      </c>
+      <c r="K8">
+        <v>0.90082644628099096</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="38">
+        <v>0.93617021276595702</v>
+      </c>
+      <c r="C9" s="38">
+        <v>0.92561983471074305</v>
+      </c>
+      <c r="D9" s="38">
+        <v>1</v>
+      </c>
+      <c r="E9" s="38">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0.96099290780141799</v>
+      </c>
+      <c r="G9" s="38">
+        <v>0.86776859504132198</v>
+      </c>
+      <c r="H9" s="38">
+        <v>0.96453900709219798</v>
+      </c>
+      <c r="I9" s="38">
+        <v>0.834710743801652</v>
+      </c>
+      <c r="J9" s="38">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.90909090909090895</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="38">
+        <v>0.92907801418439695</v>
+      </c>
+      <c r="C10" s="38">
+        <v>0.91735537190082606</v>
+      </c>
+      <c r="D10" s="38">
+        <v>1</v>
+      </c>
+      <c r="E10" s="38">
+        <v>0.93388429752066104</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0.96808510638297796</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0.834710743801652</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0.97163120567375805</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0.87603305785123897</v>
+      </c>
+      <c r="J10" s="38">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.91735537190082606</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="38">
+        <v>0.94680851063829696</v>
+      </c>
+      <c r="C11" s="38">
+        <v>0.88429752066115697</v>
+      </c>
+      <c r="D11" s="38">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0.90082644628099096</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0.96808510638297796</v>
+      </c>
+      <c r="G11" s="38">
+        <v>0.91735537190082606</v>
+      </c>
+      <c r="H11" s="38">
+        <v>0.95744680851063801</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0.93388429752066104</v>
+      </c>
+      <c r="J11" s="38">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0.90082644628099096</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="38">
+        <v>0.93617021276595702</v>
+      </c>
+      <c r="C12" s="38">
+        <v>0.93388429752066104</v>
+      </c>
+      <c r="D12" s="38">
+        <v>1</v>
+      </c>
+      <c r="E12" s="38">
+        <v>0.92561983471074305</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0.97872340425531901</v>
+      </c>
+      <c r="G12" s="38">
+        <v>0.87603305785123897</v>
+      </c>
+      <c r="H12" s="38">
+        <v>0.95035460992907805</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0.90082644628099096</v>
+      </c>
+      <c r="J12" s="38">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0.94214876033057804</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>